--- a/data/pca/factorExposure/factorExposure_2015-01-28.xlsx
+++ b/data/pca/factorExposure/factorExposure_2015-01-28.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="110">
   <si>
     <t>factor1</t>
   </si>
@@ -23,6 +23,18 @@
   </si>
   <si>
     <t>factor3</t>
+  </si>
+  <si>
+    <t>factor4</t>
+  </si>
+  <si>
+    <t>factor5</t>
+  </si>
+  <si>
+    <t>factor6</t>
+  </si>
+  <si>
+    <t>factor7</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -689,13 +701,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D104"/>
+  <dimension ref="A1:H104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -705,24 +717,48 @@
       <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" s="1" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="B2">
-        <v>-0.01469219356520234</v>
+        <v>-0.01082816008819078</v>
       </c>
       <c r="C2">
-        <v>-0.03966497192787675</v>
+        <v>0.05571328389220737</v>
       </c>
       <c r="D2">
-        <v>0.1092113822634997</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+        <v>-0.03896329637530527</v>
+      </c>
+      <c r="E2">
+        <v>0.1023198707907778</v>
+      </c>
+      <c r="F2">
+        <v>0.1295907894572582</v>
+      </c>
+      <c r="G2">
+        <v>0.09911417179698424</v>
+      </c>
+      <c r="H2">
+        <v>-0.03636240581065524</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
       <c r="A3" s="1" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -733,24 +769,48 @@
       <c r="D3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:4">
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
       <c r="A4" s="1" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="B4">
-        <v>-0.03822304034931589</v>
+        <v>-0.02019678713642613</v>
       </c>
       <c r="C4">
-        <v>-0.1027476320397008</v>
+        <v>0.130053367797123</v>
       </c>
       <c r="D4">
-        <v>0.0629781920743151</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
+        <v>-0.0179296786119342</v>
+      </c>
+      <c r="E4">
+        <v>0.08542698192965181</v>
+      </c>
+      <c r="F4">
+        <v>0.1100687983953827</v>
+      </c>
+      <c r="G4">
+        <v>-0.05122333620706489</v>
+      </c>
+      <c r="H4">
+        <v>-0.04408652902662278</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
       <c r="A5" s="1" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -761,164 +821,308 @@
       <c r="D5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:4">
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
       <c r="A6" s="1" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="B6">
-        <v>-0.0283137437069474</v>
+        <v>-0.0345184703687861</v>
       </c>
       <c r="C6">
-        <v>-0.03406412306107612</v>
+        <v>0.04935360447331579</v>
       </c>
       <c r="D6">
-        <v>0.07893144321637399</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
+        <v>-0.01597430730871588</v>
+      </c>
+      <c r="E6">
+        <v>0.114361885375675</v>
+      </c>
+      <c r="F6">
+        <v>0.07672647174067164</v>
+      </c>
+      <c r="G6">
+        <v>-0.007426885949386865</v>
+      </c>
+      <c r="H6">
+        <v>0.04071365737133794</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
       <c r="A7" s="1" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="B7">
-        <v>0.005297747389476803</v>
+        <v>-0.006744464880852133</v>
       </c>
       <c r="C7">
-        <v>-0.03781210304114223</v>
+        <v>0.05246815990888005</v>
       </c>
       <c r="D7">
-        <v>0.0672686587107766</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
+        <v>-0.00618947790125713</v>
+      </c>
+      <c r="E7">
+        <v>0.09120957736579897</v>
+      </c>
+      <c r="F7">
+        <v>0.02589766067430068</v>
+      </c>
+      <c r="G7">
+        <v>-0.01478085119917566</v>
+      </c>
+      <c r="H7">
+        <v>-0.008629130787715848</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
       <c r="A8" s="1" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="B8">
-        <v>-0.001017121439762648</v>
+        <v>0.004895712727702807</v>
       </c>
       <c r="C8">
-        <v>-0.04246736561042184</v>
+        <v>0.05319099617329066</v>
       </c>
       <c r="D8">
-        <v>0.06068065236720872</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
+        <v>0.006994460596495199</v>
+      </c>
+      <c r="E8">
+        <v>0.06342569740923859</v>
+      </c>
+      <c r="F8">
+        <v>0.07692203333352154</v>
+      </c>
+      <c r="G8">
+        <v>0.01878880451924578</v>
+      </c>
+      <c r="H8">
+        <v>-0.06964030988808208</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
       <c r="A9" s="1" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="B9">
-        <v>-0.02579294160497446</v>
+        <v>-0.01294621464361023</v>
       </c>
       <c r="C9">
-        <v>-0.09070746733610571</v>
+        <v>0.1081035820604905</v>
       </c>
       <c r="D9">
-        <v>0.07339662868840939</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
+        <v>-0.01890554739768614</v>
+      </c>
+      <c r="E9">
+        <v>0.07770927142565125</v>
+      </c>
+      <c r="F9">
+        <v>0.08242754704635834</v>
+      </c>
+      <c r="G9">
+        <v>-0.02476348357875326</v>
+      </c>
+      <c r="H9">
+        <v>-0.0004317211894555922</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
       <c r="A10" s="1" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="B10">
-        <v>-0.2191541086201667</v>
+        <v>-0.2429386629736352</v>
       </c>
       <c r="C10">
-        <v>0.1141127160951904</v>
+        <v>-0.08230617839975587</v>
       </c>
       <c r="D10">
-        <v>-0.04622175318079101</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
+        <v>0.001137549635127799</v>
+      </c>
+      <c r="E10">
+        <v>-0.0274254787179543</v>
+      </c>
+      <c r="F10">
+        <v>0.02188528590561503</v>
+      </c>
+      <c r="G10">
+        <v>-0.01109506849510069</v>
+      </c>
+      <c r="H10">
+        <v>0.001349414640225081</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
       <c r="A11" s="1" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="B11">
-        <v>-0.006924715289319958</v>
+        <v>-0.009890393708521664</v>
       </c>
       <c r="C11">
-        <v>-0.04307461631917141</v>
+        <v>0.06371747612119052</v>
       </c>
       <c r="D11">
-        <v>0.03930154969507743</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
+        <v>-3.15447483402112e-05</v>
+      </c>
+      <c r="E11">
+        <v>0.05443390518543793</v>
+      </c>
+      <c r="F11">
+        <v>0.01039140914304133</v>
+      </c>
+      <c r="G11">
+        <v>-0.0106490843115046</v>
+      </c>
+      <c r="H11">
+        <v>0.0009352752627200033</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
       <c r="A12" s="1" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="B12">
-        <v>-0.00651221655755499</v>
+        <v>-0.01046766077792927</v>
       </c>
       <c r="C12">
-        <v>-0.04614552312607565</v>
+        <v>0.05429646353393424</v>
       </c>
       <c r="D12">
-        <v>0.04613700676134636</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
+        <v>-0.00950685026345063</v>
+      </c>
+      <c r="E12">
+        <v>0.05004764690708373</v>
+      </c>
+      <c r="F12">
+        <v>0.01076125386677065</v>
+      </c>
+      <c r="G12">
+        <v>0.008506757737896237</v>
+      </c>
+      <c r="H12">
+        <v>0.02672060045593468</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
       <c r="A13" s="1" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="B13">
-        <v>-0.01340667862669804</v>
+        <v>-0.003977915660752786</v>
       </c>
       <c r="C13">
-        <v>-0.04915239936648454</v>
+        <v>0.08365075723120058</v>
       </c>
       <c r="D13">
-        <v>0.1067398118308569</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
+        <v>-0.05253474706829152</v>
+      </c>
+      <c r="E13">
+        <v>0.1270174906202254</v>
+      </c>
+      <c r="F13">
+        <v>0.05952064602653646</v>
+      </c>
+      <c r="G13">
+        <v>0.07661721817431001</v>
+      </c>
+      <c r="H13">
+        <v>0.06119648814414198</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
       <c r="A14" s="1" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="B14">
-        <v>0.01073421399247039</v>
+        <v>-0.002483553708484562</v>
       </c>
       <c r="C14">
-        <v>-0.02072564406221523</v>
+        <v>0.04347857725659802</v>
       </c>
       <c r="D14">
-        <v>0.05421133462900398</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
+        <v>0.004353625577359081</v>
+      </c>
+      <c r="E14">
+        <v>0.10713272287408</v>
+      </c>
+      <c r="F14">
+        <v>0.05784786244773309</v>
+      </c>
+      <c r="G14">
+        <v>0.02352983762909681</v>
+      </c>
+      <c r="H14">
+        <v>0.03946736869255336</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
       <c r="A15" s="1" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="B15">
-        <v>0.002777937345776951</v>
+        <v>0.004881881456769113</v>
       </c>
       <c r="C15">
-        <v>-0.01468069750478212</v>
+        <v>0.03918898644502705</v>
       </c>
       <c r="D15">
-        <v>0.04938141341471437</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
+        <v>-0.01729255314051327</v>
+      </c>
+      <c r="E15">
+        <v>0.06943649597487278</v>
+      </c>
+      <c r="F15">
+        <v>0.02948525907672842</v>
+      </c>
+      <c r="G15">
+        <v>0.00704434097427862</v>
+      </c>
+      <c r="H15">
+        <v>-0.01170167499556233</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
       <c r="A16" s="1" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="B16">
-        <v>-0.007555501840381719</v>
+        <v>-0.009864135383769382</v>
       </c>
       <c r="C16">
-        <v>-0.04353807691266805</v>
+        <v>0.05654037816065391</v>
       </c>
       <c r="D16">
-        <v>0.04329665566688319</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
+        <v>-0.005513579673755161</v>
+      </c>
+      <c r="E16">
+        <v>0.05149797358508499</v>
+      </c>
+      <c r="F16">
+        <v>0.008780303746071277</v>
+      </c>
+      <c r="G16">
+        <v>-0.01545777279901635</v>
+      </c>
+      <c r="H16">
+        <v>0.01884569642944619</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
       <c r="A17" s="1" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -929,10 +1133,22 @@
       <c r="D17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:4">
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
       <c r="A18" s="1" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -943,122 +1159,230 @@
       <c r="D18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:4">
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
       <c r="A19" s="1" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="B19">
-        <v>-0.004783975003337011</v>
+        <v>-0.001114957961977378</v>
       </c>
       <c r="C19">
-        <v>-0.02843337101084831</v>
+        <v>0.02099809658820554</v>
       </c>
       <c r="D19">
-        <v>0.04057801391453622</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4">
+        <v>-0.01017910860003216</v>
+      </c>
+      <c r="E19">
+        <v>0.008826658861329075</v>
+      </c>
+      <c r="F19">
+        <v>-0.002542543407608296</v>
+      </c>
+      <c r="G19">
+        <v>0.03280640223101999</v>
+      </c>
+      <c r="H19">
+        <v>-0.01175620700182364</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
       <c r="A20" s="1" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="B20">
-        <v>0.001949017603545833</v>
+        <v>-0.003340664640695384</v>
       </c>
       <c r="C20">
-        <v>-0.03721672333028543</v>
+        <v>0.05888983425203381</v>
       </c>
       <c r="D20">
-        <v>0.04991803969672055</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
+        <v>-0.01917012629799342</v>
+      </c>
+      <c r="E20">
+        <v>0.07379609662738054</v>
+      </c>
+      <c r="F20">
+        <v>0.02919539583294248</v>
+      </c>
+      <c r="G20">
+        <v>-0.02567804702374582</v>
+      </c>
+      <c r="H20">
+        <v>0.007895630374534064</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
       <c r="A21" s="1" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="B21">
-        <v>-0.005280521471552</v>
+        <v>-0.003476769453560336</v>
       </c>
       <c r="C21">
-        <v>-0.05995400452363828</v>
+        <v>0.07098781710658116</v>
       </c>
       <c r="D21">
-        <v>0.0710119744884021</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
+        <v>-0.01419442725880459</v>
+      </c>
+      <c r="E21">
+        <v>0.07842654372181336</v>
+      </c>
+      <c r="F21">
+        <v>0.09655015470730445</v>
+      </c>
+      <c r="G21">
+        <v>0.1029579490745011</v>
+      </c>
+      <c r="H21">
+        <v>0.04998771525529854</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
       <c r="A22" s="1" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="B22">
-        <v>0.001201066322703285</v>
+        <v>0.01080938638492156</v>
       </c>
       <c r="C22">
-        <v>-0.07281699853985499</v>
+        <v>0.1016190757562486</v>
       </c>
       <c r="D22">
-        <v>0.1822450379853207</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
+        <v>-0.1070682898480579</v>
+      </c>
+      <c r="E22">
+        <v>0.1937931932322663</v>
+      </c>
+      <c r="F22">
+        <v>0.2044741937528552</v>
+      </c>
+      <c r="G22">
+        <v>0.01848457161426483</v>
+      </c>
+      <c r="H22">
+        <v>-0.2586474744359278</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
       <c r="A23" s="1" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="B23">
-        <v>0.001353869223248624</v>
+        <v>0.007781830598625783</v>
       </c>
       <c r="C23">
-        <v>-0.07389471036238331</v>
+        <v>0.1041678172904423</v>
       </c>
       <c r="D23">
-        <v>0.1813187181424207</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
+        <v>-0.1105222065892255</v>
+      </c>
+      <c r="E23">
+        <v>0.1918417732075701</v>
+      </c>
+      <c r="F23">
+        <v>0.2039741107717867</v>
+      </c>
+      <c r="G23">
+        <v>0.01946017392812605</v>
+      </c>
+      <c r="H23">
+        <v>-0.2487601002590804</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
       <c r="A24" s="1" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="B24">
-        <v>-0.009749086577019344</v>
+        <v>-0.01077943705570368</v>
       </c>
       <c r="C24">
-        <v>-0.06464150751693541</v>
+        <v>0.07331202033759079</v>
       </c>
       <c r="D24">
-        <v>0.05283686902192237</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
+        <v>0.003230822492790147</v>
+      </c>
+      <c r="E24">
+        <v>0.05894161182488529</v>
+      </c>
+      <c r="F24">
+        <v>0.01331202996169052</v>
+      </c>
+      <c r="G24">
+        <v>-1.821991475211349e-06</v>
+      </c>
+      <c r="H24">
+        <v>0.004738109108096783</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8">
       <c r="A25" s="1" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="B25">
-        <v>-0.01027324173957807</v>
+        <v>-0.01441795940677405</v>
       </c>
       <c r="C25">
-        <v>-0.05602641415334751</v>
+        <v>0.06706375226524669</v>
       </c>
       <c r="D25">
-        <v>0.0408523801404085</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
+        <v>-0.007838825617893884</v>
+      </c>
+      <c r="E25">
+        <v>0.04564946540985843</v>
+      </c>
+      <c r="F25">
+        <v>0.01427459401996131</v>
+      </c>
+      <c r="G25">
+        <v>-0.01305636338318418</v>
+      </c>
+      <c r="H25">
+        <v>0.008626246208351793</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8">
       <c r="A26" s="1" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="B26">
-        <v>-0.006449858917348395</v>
+        <v>-0.01610075120238916</v>
       </c>
       <c r="C26">
-        <v>-0.02563279272200197</v>
+        <v>0.04473520267809992</v>
       </c>
       <c r="D26">
-        <v>0.04574475713173055</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4">
+        <v>0.01618319060543948</v>
+      </c>
+      <c r="E26">
+        <v>0.07258998882480076</v>
+      </c>
+      <c r="F26">
+        <v>0.06018226557835057</v>
+      </c>
+      <c r="G26">
+        <v>0.01518414721187064</v>
+      </c>
+      <c r="H26">
+        <v>-0.004759008845449923</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8">
       <c r="A27" s="1" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1069,136 +1393,256 @@
       <c r="D27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:4">
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+      <c r="H27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8">
       <c r="A28" s="1" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="B28">
-        <v>-0.3010217742218563</v>
+        <v>-0.3133416596692426</v>
       </c>
       <c r="C28">
-        <v>0.1154003754285289</v>
+        <v>-0.09025942660016226</v>
       </c>
       <c r="D28">
-        <v>-0.01800705773896662</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4">
+        <v>-0.01770589400476675</v>
+      </c>
+      <c r="E28">
+        <v>-0.05230426028585882</v>
+      </c>
+      <c r="F28">
+        <v>0.06364271803679014</v>
+      </c>
+      <c r="G28">
+        <v>0.01730842779093395</v>
+      </c>
+      <c r="H28">
+        <v>-0.070455142229713</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8">
       <c r="A29" s="1" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="B29">
-        <v>0.0005269296427822181</v>
+        <v>-0.002798768462433137</v>
       </c>
       <c r="C29">
-        <v>-0.02732139032775825</v>
+        <v>0.0510623952824063</v>
       </c>
       <c r="D29">
-        <v>0.05808693588906836</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4">
+        <v>0.002937202947574212</v>
+      </c>
+      <c r="E29">
+        <v>0.1176667883803862</v>
+      </c>
+      <c r="F29">
+        <v>0.06296923003099741</v>
+      </c>
+      <c r="G29">
+        <v>0.02142982664734646</v>
+      </c>
+      <c r="H29">
+        <v>0.05839807733436197</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8">
       <c r="A30" s="1" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="B30">
-        <v>-0.0182383993054742</v>
+        <v>-0.01644006994362541</v>
       </c>
       <c r="C30">
-        <v>-0.090487928269244</v>
+        <v>0.1143545548182085</v>
       </c>
       <c r="D30">
-        <v>0.1290476022698346</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4">
+        <v>-0.01871801010956679</v>
+      </c>
+      <c r="E30">
+        <v>0.1431773532993318</v>
+      </c>
+      <c r="F30">
+        <v>0.05305087758094044</v>
+      </c>
+      <c r="G30">
+        <v>-0.02352335397707693</v>
+      </c>
+      <c r="H30">
+        <v>-0.008653125832398153</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8">
       <c r="A31" s="1" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="B31">
-        <v>-0.01832442033096231</v>
+        <v>-0.009461667546295032</v>
       </c>
       <c r="C31">
-        <v>-0.09814611677661282</v>
+        <v>0.1021995763083215</v>
       </c>
       <c r="D31">
-        <v>0.03809452774092278</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4">
+        <v>0.006391637657643658</v>
+      </c>
+      <c r="E31">
+        <v>0.02173230087138867</v>
+      </c>
+      <c r="F31">
+        <v>0.008780985943575669</v>
+      </c>
+      <c r="G31">
+        <v>0.01991594056914741</v>
+      </c>
+      <c r="H31">
+        <v>-0.021860542744058</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8">
       <c r="A32" s="1" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="B32">
-        <v>-0.01281120501745496</v>
+        <v>-0.01236266620203363</v>
       </c>
       <c r="C32">
-        <v>-0.05438266372315534</v>
+        <v>0.06379572910245135</v>
       </c>
       <c r="D32">
-        <v>0.07373685798893091</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4">
+        <v>-0.04964365687661688</v>
+      </c>
+      <c r="E32">
+        <v>0.04494913418966027</v>
+      </c>
+      <c r="F32">
+        <v>0.08341772023535697</v>
+      </c>
+      <c r="G32">
+        <v>0.03362357948108858</v>
+      </c>
+      <c r="H32">
+        <v>0.00448081642061821</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8">
       <c r="A33" s="1" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="B33">
-        <v>-0.001901199583729044</v>
+        <v>-0.007531764178281275</v>
       </c>
       <c r="C33">
-        <v>-0.05681313388603945</v>
+        <v>0.08205603834728889</v>
       </c>
       <c r="D33">
-        <v>0.07507281996727992</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4">
+        <v>-0.02094905059084824</v>
+      </c>
+      <c r="E33">
+        <v>0.09570499246649174</v>
+      </c>
+      <c r="F33">
+        <v>0.0484321619765201</v>
+      </c>
+      <c r="G33">
+        <v>0.003750208806891488</v>
+      </c>
+      <c r="H33">
+        <v>0.007557072239488722</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8">
       <c r="A34" s="1" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="B34">
-        <v>-0.004825298079579062</v>
+        <v>-0.009147195355667943</v>
       </c>
       <c r="C34">
-        <v>-0.05990304803678025</v>
+        <v>0.06158059410897632</v>
       </c>
       <c r="D34">
-        <v>0.05757769684138546</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4">
+        <v>0.001822040879618671</v>
+      </c>
+      <c r="E34">
+        <v>0.04809049302463055</v>
+      </c>
+      <c r="F34">
+        <v>-0.01616500451273181</v>
+      </c>
+      <c r="G34">
+        <v>0.0152543159467913</v>
+      </c>
+      <c r="H34">
+        <v>0.008925515475049958</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8">
       <c r="A35" s="1" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="B35">
-        <v>-0.0007029858854518831</v>
+        <v>-0.00432221570675496</v>
       </c>
       <c r="C35">
-        <v>-0.0005489726782343286</v>
+        <v>0.02072358459026562</v>
       </c>
       <c r="D35">
-        <v>0.003979334253944919</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4">
+        <v>-0.007274374058502904</v>
+      </c>
+      <c r="E35">
+        <v>0.03532990324411438</v>
+      </c>
+      <c r="F35">
+        <v>0.03251135756746398</v>
+      </c>
+      <c r="G35">
+        <v>-0.003644734824083843</v>
+      </c>
+      <c r="H35">
+        <v>0.02401807287383646</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8">
       <c r="A36" s="1" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="B36">
-        <v>-0.004930386608476368</v>
+        <v>-0.0101618974830519</v>
       </c>
       <c r="C36">
-        <v>-0.02663830499037582</v>
+        <v>0.03803667493775108</v>
       </c>
       <c r="D36">
-        <v>0.03845886863813259</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4">
+        <v>0.003480261701848751</v>
+      </c>
+      <c r="E36">
+        <v>0.06259027784516451</v>
+      </c>
+      <c r="F36">
+        <v>0.05427665105913414</v>
+      </c>
+      <c r="G36">
+        <v>0.004430299707322016</v>
+      </c>
+      <c r="H36">
+        <v>0.001507340754250553</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8">
       <c r="A37" s="1" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1209,66 +1653,126 @@
       <c r="D37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:4">
+      <c r="E37">
+        <v>0</v>
+      </c>
+      <c r="F37">
+        <v>0</v>
+      </c>
+      <c r="G37">
+        <v>0</v>
+      </c>
+      <c r="H37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8">
       <c r="A38" s="1" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="B38">
-        <v>-0.003280416421773567</v>
+        <v>-0.006215258806710428</v>
       </c>
       <c r="C38">
-        <v>-0.01943339990100444</v>
+        <v>0.04120672820121646</v>
       </c>
       <c r="D38">
-        <v>0.06786322300678148</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4">
+        <v>-0.01991880039752582</v>
+      </c>
+      <c r="E38">
+        <v>0.08008275077647407</v>
+      </c>
+      <c r="F38">
+        <v>0.02348140997277086</v>
+      </c>
+      <c r="G38">
+        <v>-0.004424403403482762</v>
+      </c>
+      <c r="H38">
+        <v>-0.05146062318545909</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8">
       <c r="A39" s="1" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="B39">
-        <v>-0.006697974171764277</v>
+        <v>-0.007335197191546954</v>
       </c>
       <c r="C39">
-        <v>-0.06809803604344672</v>
+        <v>0.09865995763780455</v>
       </c>
       <c r="D39">
-        <v>0.0940828840800445</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4">
+        <v>0.004900025894927763</v>
+      </c>
+      <c r="E39">
+        <v>0.118521714226425</v>
+      </c>
+      <c r="F39">
+        <v>0.01821126880473657</v>
+      </c>
+      <c r="G39">
+        <v>-0.003425577699759598</v>
+      </c>
+      <c r="H39">
+        <v>0.03070084047327145</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8">
       <c r="A40" s="1" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="B40">
-        <v>-0.01282492723643232</v>
+        <v>-0.01331775672978998</v>
       </c>
       <c r="C40">
-        <v>-0.03685493493451349</v>
+        <v>0.05282204972495028</v>
       </c>
       <c r="D40">
-        <v>0.1017397802365349</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4">
+        <v>-0.01905400351927643</v>
+      </c>
+      <c r="E40">
+        <v>0.1074144009738453</v>
+      </c>
+      <c r="F40">
+        <v>0.005140471133786613</v>
+      </c>
+      <c r="G40">
+        <v>0.06741683647094504</v>
+      </c>
+      <c r="H40">
+        <v>-0.0183857626655904</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8">
       <c r="A41" s="1" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="B41">
-        <v>-0.008043906674188668</v>
+        <v>-0.01636653848454707</v>
       </c>
       <c r="C41">
-        <v>-0.02039887259266049</v>
+        <v>0.03661274017150939</v>
       </c>
       <c r="D41">
-        <v>0.01811877481082392</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4">
+        <v>-0.006587280387058941</v>
+      </c>
+      <c r="E41">
+        <v>0.02355886287462085</v>
+      </c>
+      <c r="F41">
+        <v>0.006835837918810038</v>
+      </c>
+      <c r="G41">
+        <v>-0.001783802551246695</v>
+      </c>
+      <c r="H41">
+        <v>-0.006157624202566213</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8">
       <c r="A42" s="1" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -1279,38 +1783,74 @@
       <c r="D42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:4">
+      <c r="E42">
+        <v>0</v>
+      </c>
+      <c r="F42">
+        <v>0</v>
+      </c>
+      <c r="G42">
+        <v>0</v>
+      </c>
+      <c r="H42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8">
       <c r="A43" s="1" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="B43">
-        <v>0.003620316607906115</v>
+        <v>-0.007679315541168052</v>
       </c>
       <c r="C43">
-        <v>-0.01556846255165733</v>
+        <v>0.03005136554483652</v>
       </c>
       <c r="D43">
-        <v>0.03344222437115147</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4">
+        <v>-0.008452286404295467</v>
+      </c>
+      <c r="E43">
+        <v>0.04068804884187226</v>
+      </c>
+      <c r="F43">
+        <v>0.01210465543015652</v>
+      </c>
+      <c r="G43">
+        <v>-0.008221759101352848</v>
+      </c>
+      <c r="H43">
+        <v>-0.01139604292306751</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8">
       <c r="A44" s="1" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="B44">
-        <v>-0.01357563246230029</v>
+        <v>-0.007462048638033208</v>
       </c>
       <c r="C44">
-        <v>-0.04702751703039214</v>
+        <v>0.06801668028328695</v>
       </c>
       <c r="D44">
-        <v>0.0728788092159587</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4">
+        <v>-0.01028188397581726</v>
+      </c>
+      <c r="E44">
+        <v>0.1076557863985468</v>
+      </c>
+      <c r="F44">
+        <v>0.06592453813244625</v>
+      </c>
+      <c r="G44">
+        <v>-0.002765103838397842</v>
+      </c>
+      <c r="H44">
+        <v>-0.02164017117373473</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8">
       <c r="A45" s="1" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1321,94 +1861,178 @@
       <c r="D45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:4">
+      <c r="E45">
+        <v>0</v>
+      </c>
+      <c r="F45">
+        <v>0</v>
+      </c>
+      <c r="G45">
+        <v>0</v>
+      </c>
+      <c r="H45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8">
       <c r="A46" s="1" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="B46">
-        <v>0.00144978577875879</v>
+        <v>0.0007550387715515931</v>
       </c>
       <c r="C46">
-        <v>-0.0362906170017201</v>
+        <v>0.05063578955962656</v>
       </c>
       <c r="D46">
-        <v>0.05827932474779021</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4">
+        <v>0.009344204485352496</v>
+      </c>
+      <c r="E46">
+        <v>0.08589447904868117</v>
+      </c>
+      <c r="F46">
+        <v>0.05394618597798479</v>
+      </c>
+      <c r="G46">
+        <v>0.01473857628443611</v>
+      </c>
+      <c r="H46">
+        <v>0.01213818900989395</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8">
       <c r="A47" s="1" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="B47">
-        <v>-0.04663247514758595</v>
+        <v>-0.02800740374160407</v>
       </c>
       <c r="C47">
-        <v>-0.1326999621761037</v>
+        <v>0.127662831054119</v>
       </c>
       <c r="D47">
-        <v>0.04660649585090017</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4">
+        <v>-0.004451644638990974</v>
+      </c>
+      <c r="E47">
+        <v>0.001631133378452871</v>
+      </c>
+      <c r="F47">
+        <v>-0.01090434569704249</v>
+      </c>
+      <c r="G47">
+        <v>0.008075059368675181</v>
+      </c>
+      <c r="H47">
+        <v>-0.02778858002033576</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8">
       <c r="A48" s="1" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="B48">
-        <v>-0.00457142338363161</v>
+        <v>-0.01247279673807024</v>
       </c>
       <c r="C48">
-        <v>-0.03004201983748094</v>
+        <v>0.04609925104728663</v>
       </c>
       <c r="D48">
-        <v>0.03860167677221107</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4">
+        <v>0.001745004422375883</v>
+      </c>
+      <c r="E48">
+        <v>0.06491581141684812</v>
+      </c>
+      <c r="F48">
+        <v>0.06727731558196463</v>
+      </c>
+      <c r="G48">
+        <v>0.005316091432539447</v>
+      </c>
+      <c r="H48">
+        <v>-0.008265296379024428</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8">
       <c r="A49" s="1" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="B49">
-        <v>0</v>
+        <v>-0.002827832705603913</v>
       </c>
       <c r="C49">
-        <v>0</v>
+        <v>0.006304636970734557</v>
       </c>
       <c r="D49">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4">
+        <v>-0.001935372995150548</v>
+      </c>
+      <c r="E49">
+        <v>0.002611134574596601</v>
+      </c>
+      <c r="F49">
+        <v>-0.01300942867416109</v>
+      </c>
+      <c r="G49">
+        <v>-0.004204227626729956</v>
+      </c>
+      <c r="H49">
+        <v>0.01612540419341841</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8">
       <c r="A50" s="1" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="B50">
-        <v>-0.0227846575453236</v>
+        <v>-0.01320201011567676</v>
       </c>
       <c r="C50">
-        <v>-0.07309774662478177</v>
+        <v>0.08454160849119888</v>
       </c>
       <c r="D50">
-        <v>0.05736585108078841</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4">
+        <v>-0.007201915680292482</v>
+      </c>
+      <c r="E50">
+        <v>0.03816489072542067</v>
+      </c>
+      <c r="F50">
+        <v>0.007087883480482374</v>
+      </c>
+      <c r="G50">
+        <v>0.01134252042805035</v>
+      </c>
+      <c r="H50">
+        <v>-0.03399922699930676</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8">
       <c r="A51" s="1" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="B51">
-        <v>-0.005365446283628594</v>
+        <v>0.00465930345547028</v>
       </c>
       <c r="C51">
-        <v>-0.01071641569472069</v>
+        <v>0.02513023335549936</v>
       </c>
       <c r="D51">
-        <v>0.0486179310298385</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4">
+        <v>0.008457187724061921</v>
+      </c>
+      <c r="E51">
+        <v>0.05977952367248624</v>
+      </c>
+      <c r="F51">
+        <v>0.05628288267004222</v>
+      </c>
+      <c r="G51">
+        <v>0.02173494494148705</v>
+      </c>
+      <c r="H51">
+        <v>-0.002800737604982643</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8">
       <c r="A52" s="1" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1419,66 +2043,126 @@
       <c r="D52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:4">
+      <c r="E52">
+        <v>0</v>
+      </c>
+      <c r="F52">
+        <v>0</v>
+      </c>
+      <c r="G52">
+        <v>0</v>
+      </c>
+      <c r="H52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8">
       <c r="A53" s="1" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="B53">
-        <v>-0.07768063769584425</v>
+        <v>-0.05739613042653459</v>
       </c>
       <c r="C53">
-        <v>-0.1602038849492118</v>
+        <v>0.1671653444305911</v>
       </c>
       <c r="D53">
-        <v>-0.01078895374347866</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4">
+        <v>0.02469424733292891</v>
+      </c>
+      <c r="E53">
+        <v>-0.05583791748623814</v>
+      </c>
+      <c r="F53">
+        <v>-0.00531165745205089</v>
+      </c>
+      <c r="G53">
+        <v>0.01789805369320588</v>
+      </c>
+      <c r="H53">
+        <v>-0.02357500300481175</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8">
       <c r="A54" s="1" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="B54">
-        <v>-0.003491176294529404</v>
+        <v>-0.01076983151157172</v>
       </c>
       <c r="C54">
-        <v>-0.03603794229020998</v>
+        <v>0.05247456296095688</v>
       </c>
       <c r="D54">
-        <v>0.0776232029048988</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4">
+        <v>-0.02489817505347027</v>
+      </c>
+      <c r="E54">
+        <v>0.07497202591650706</v>
+      </c>
+      <c r="F54">
+        <v>0.03145416929993586</v>
+      </c>
+      <c r="G54">
+        <v>0.01000765889640955</v>
+      </c>
+      <c r="H54">
+        <v>-0.0152696030112213</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8">
       <c r="A55" s="1" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="B55">
-        <v>-0.06296243340630892</v>
+        <v>-0.03900292472136405</v>
       </c>
       <c r="C55">
-        <v>-0.1290320624762742</v>
+        <v>0.1257400518555052</v>
       </c>
       <c r="D55">
-        <v>-0.002085673859063462</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4">
+        <v>0.04693623550843401</v>
+      </c>
+      <c r="E55">
+        <v>-0.04604183150074551</v>
+      </c>
+      <c r="F55">
+        <v>-0.03225810013612092</v>
+      </c>
+      <c r="G55">
+        <v>0.03967150926921763</v>
+      </c>
+      <c r="H55">
+        <v>-0.0328370536806227</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8">
       <c r="A56" s="1" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="B56">
-        <v>-0.0940379083028399</v>
+        <v>-0.05792808387618927</v>
       </c>
       <c r="C56">
-        <v>-0.1879184978101203</v>
+        <v>0.1918614301069393</v>
       </c>
       <c r="D56">
-        <v>0.01834247764706268</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4">
+        <v>0.03907786588638416</v>
+      </c>
+      <c r="E56">
+        <v>-0.07022720148266684</v>
+      </c>
+      <c r="F56">
+        <v>-0.04662484312817376</v>
+      </c>
+      <c r="G56">
+        <v>0.08158725022307102</v>
+      </c>
+      <c r="H56">
+        <v>-0.0758330247586345</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8">
       <c r="A57" s="1" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -1489,178 +2173,334 @@
       <c r="D57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:4">
+      <c r="E57">
+        <v>0</v>
+      </c>
+      <c r="F57">
+        <v>0</v>
+      </c>
+      <c r="G57">
+        <v>0</v>
+      </c>
+      <c r="H57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8">
       <c r="A58" s="1" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="B58">
-        <v>-0.01286787455627332</v>
+        <v>-0.00892966601505407</v>
       </c>
       <c r="C58">
-        <v>-0.05161181186152854</v>
+        <v>0.1020235350847958</v>
       </c>
       <c r="D58">
-        <v>0.1593984172241095</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4">
+        <v>-0.1091067032940561</v>
+      </c>
+      <c r="E58">
+        <v>0.1817972593033218</v>
+      </c>
+      <c r="F58">
+        <v>0.2415508443006725</v>
+      </c>
+      <c r="G58">
+        <v>0.008000959406945837</v>
+      </c>
+      <c r="H58">
+        <v>-0.1463645145708794</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8">
       <c r="A59" s="1" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="B59">
-        <v>-0.2261516203580652</v>
+        <v>-0.2625251549006443</v>
       </c>
       <c r="C59">
-        <v>0.07522234437903014</v>
+        <v>-0.04606040209344334</v>
       </c>
       <c r="D59">
-        <v>0.0441319625654483</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4">
+        <v>-0.03569063512269564</v>
+      </c>
+      <c r="E59">
+        <v>0.01672296503711556</v>
+      </c>
+      <c r="F59">
+        <v>0.03992118088680701</v>
+      </c>
+      <c r="G59">
+        <v>0.0373397843966585</v>
+      </c>
+      <c r="H59">
+        <v>0.004362865565618489</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8">
       <c r="A60" s="1" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="B60">
-        <v>-0.1450570135008983</v>
+        <v>-0.1497964943839316</v>
       </c>
       <c r="C60">
-        <v>-0.131892555005419</v>
+        <v>0.1596318778664254</v>
       </c>
       <c r="D60">
-        <v>0.1251465494777468</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4">
+        <v>0.003711516560527593</v>
+      </c>
+      <c r="E60">
+        <v>0.131666652660074</v>
+      </c>
+      <c r="F60">
+        <v>-0.2067208478172891</v>
+      </c>
+      <c r="G60">
+        <v>-0.08580870721607767</v>
+      </c>
+      <c r="H60">
+        <v>0.2376016806617371</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8">
       <c r="A61" s="1" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="B61">
-        <v>-0.0125293114430186</v>
+        <v>-0.01358181520578229</v>
       </c>
       <c r="C61">
-        <v>-0.06207071941291511</v>
+        <v>0.08544108156188915</v>
       </c>
       <c r="D61">
-        <v>0.06632634031452539</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4">
+        <v>-0.0001905043562600884</v>
+      </c>
+      <c r="E61">
+        <v>0.07885501438666269</v>
+      </c>
+      <c r="F61">
+        <v>0.008896978880285207</v>
+      </c>
+      <c r="G61">
+        <v>0.004625330366588061</v>
+      </c>
+      <c r="H61">
+        <v>0.01317009932326978</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8">
       <c r="A62" s="1" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="B62">
-        <v>0</v>
+        <v>0.0001285177748970913</v>
       </c>
       <c r="C62">
-        <v>0</v>
+        <v>0.0005361670307559563</v>
       </c>
       <c r="D62">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4">
+        <v>0.002007151581258963</v>
+      </c>
+      <c r="E62">
+        <v>0.0002212967887370429</v>
+      </c>
+      <c r="F62">
+        <v>0.002855655119392696</v>
+      </c>
+      <c r="G62">
+        <v>0.001677760474814411</v>
+      </c>
+      <c r="H62">
+        <v>-0.0006860573410214421</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8">
       <c r="A63" s="1" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="B63">
-        <v>-0.005211981701203714</v>
+        <v>-0.01571025967992354</v>
       </c>
       <c r="C63">
-        <v>-0.03959122642125153</v>
+        <v>0.05731459397202951</v>
       </c>
       <c r="D63">
-        <v>0.06080683453988101</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4">
+        <v>0.01841944154526899</v>
+      </c>
+      <c r="E63">
+        <v>0.08420049912780642</v>
+      </c>
+      <c r="F63">
+        <v>0.02819021067048082</v>
+      </c>
+      <c r="G63">
+        <v>0.002209351588065646</v>
+      </c>
+      <c r="H63">
+        <v>0.01287988521031985</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8">
       <c r="A64" s="1" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="B64">
-        <v>-0.03082897421268559</v>
+        <v>-0.01481298580902428</v>
       </c>
       <c r="C64">
-        <v>-0.1088914228724676</v>
+        <v>0.1063170861406119</v>
       </c>
       <c r="D64">
-        <v>0.01077524570331555</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4">
+        <v>0.01922115171640506</v>
+      </c>
+      <c r="E64">
+        <v>0.01670524556550831</v>
+      </c>
+      <c r="F64">
+        <v>0.01839731014850591</v>
+      </c>
+      <c r="G64">
+        <v>-0.03029729933923566</v>
+      </c>
+      <c r="H64">
+        <v>0.005268113525763941</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8">
       <c r="A65" s="1" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="B65">
-        <v>-0.02360592286222195</v>
+        <v>-0.0268848907326668</v>
       </c>
       <c r="C65">
-        <v>-0.03105932052990867</v>
+        <v>0.05609702608781911</v>
       </c>
       <c r="D65">
-        <v>0.08628814261600602</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4">
+        <v>-0.03620390483850798</v>
+      </c>
+      <c r="E65">
+        <v>0.1166576645561166</v>
+      </c>
+      <c r="F65">
+        <v>0.01362873482466595</v>
+      </c>
+      <c r="G65">
+        <v>-0.06490281647588861</v>
+      </c>
+      <c r="H65">
+        <v>0.04414464212149804</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8">
       <c r="A66" s="1" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="B66">
-        <v>-0.01341312896053313</v>
+        <v>-0.00858324455233234</v>
       </c>
       <c r="C66">
-        <v>-0.08681117015647774</v>
+        <v>0.123623635596776</v>
       </c>
       <c r="D66">
-        <v>0.114331567646034</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4">
+        <v>-0.02236002377163013</v>
+      </c>
+      <c r="E66">
+        <v>0.1248988046675146</v>
+      </c>
+      <c r="F66">
+        <v>0.02179350109172785</v>
+      </c>
+      <c r="G66">
+        <v>0.0102896423042882</v>
+      </c>
+      <c r="H66">
+        <v>0.001754917197491706</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8">
       <c r="A67" s="1" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="B67">
-        <v>-0.01353670791060022</v>
+        <v>-0.01533583283729567</v>
       </c>
       <c r="C67">
-        <v>-0.02355719924991254</v>
+        <v>0.04115435067956306</v>
       </c>
       <c r="D67">
-        <v>0.03961207382748942</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4">
+        <v>-0.00384554249865587</v>
+      </c>
+      <c r="E67">
+        <v>0.05358653807795748</v>
+      </c>
+      <c r="F67">
+        <v>-0.01566393349233018</v>
+      </c>
+      <c r="G67">
+        <v>-0.005069597410724712</v>
+      </c>
+      <c r="H67">
+        <v>-0.03357854157313146</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8">
       <c r="A68" s="1" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="B68">
-        <v>-0.2381642128852375</v>
+        <v>-0.2798951538321616</v>
       </c>
       <c r="C68">
-        <v>0.09278330052884091</v>
+        <v>-0.06108050438752758</v>
       </c>
       <c r="D68">
-        <v>0.02524664900694972</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4">
+        <v>-0.0270812547651373</v>
+      </c>
+      <c r="E68">
+        <v>0.03631696873631639</v>
+      </c>
+      <c r="F68">
+        <v>0.05670072102538019</v>
+      </c>
+      <c r="G68">
+        <v>0.01019730584653616</v>
+      </c>
+      <c r="H68">
+        <v>-0.03173267717629147</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8">
       <c r="A69" s="1" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="B69">
-        <v>-0.03110119174327437</v>
+        <v>-0.01224028693597817</v>
       </c>
       <c r="C69">
-        <v>-0.1318908651846719</v>
+        <v>0.1136470276850174</v>
       </c>
       <c r="D69">
-        <v>0.06040439324147499</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4">
+        <v>0.003325593747544406</v>
+      </c>
+      <c r="E69">
+        <v>0.01387783370854724</v>
+      </c>
+      <c r="F69">
+        <v>-0.01736698660858036</v>
+      </c>
+      <c r="G69">
+        <v>0.01129234081252242</v>
+      </c>
+      <c r="H69">
+        <v>-0.01174178780868992</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8">
       <c r="A70" s="1" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -1671,360 +2511,672 @@
       <c r="D70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:4">
+      <c r="E70">
+        <v>0</v>
+      </c>
+      <c r="F70">
+        <v>0</v>
+      </c>
+      <c r="G70">
+        <v>0</v>
+      </c>
+      <c r="H70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8">
       <c r="A71" s="1" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="B71">
-        <v>-0.2549017295528533</v>
+        <v>-0.2697786931985811</v>
       </c>
       <c r="C71">
-        <v>0.1089980980094055</v>
+        <v>-0.07646238821213593</v>
       </c>
       <c r="D71">
-        <v>0.01673160330129335</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4">
+        <v>-0.0111569508311693</v>
+      </c>
+      <c r="E71">
+        <v>0.009210632070213855</v>
+      </c>
+      <c r="F71">
+        <v>0.02649479800908443</v>
+      </c>
+      <c r="G71">
+        <v>0.01726472275459266</v>
+      </c>
+      <c r="H71">
+        <v>-0.0529514897040424</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8">
       <c r="A72" s="1" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="B72">
-        <v>-0.08158659406922436</v>
+        <v>-0.06342382270660289</v>
       </c>
       <c r="C72">
-        <v>-0.1057907985005587</v>
+        <v>0.1317920612164967</v>
       </c>
       <c r="D72">
-        <v>0.08473255647512039</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4">
+        <v>0.01230712988232388</v>
+      </c>
+      <c r="E72">
+        <v>0.07604011128997733</v>
+      </c>
+      <c r="F72">
+        <v>-0.03070612938843133</v>
+      </c>
+      <c r="G72">
+        <v>-0.0295438346211708</v>
+      </c>
+      <c r="H72">
+        <v>0.03669089404398414</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8">
       <c r="A73" s="1" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="B73">
-        <v>-0.1515300956070632</v>
+        <v>-0.1561586741759562</v>
       </c>
       <c r="C73">
-        <v>-0.105242262040444</v>
+        <v>0.1674171015138607</v>
       </c>
       <c r="D73">
-        <v>0.188299736178112</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4">
+        <v>0.06656905282019024</v>
+      </c>
+      <c r="E73">
+        <v>0.2661352049289046</v>
+      </c>
+      <c r="F73">
+        <v>-0.3495731749653014</v>
+      </c>
+      <c r="G73">
+        <v>-0.1730005363330722</v>
+      </c>
+      <c r="H73">
+        <v>0.3322293044983922</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8">
       <c r="A74" s="1" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="B74">
-        <v>-0.07378619215602204</v>
+        <v>-0.04859279481591135</v>
       </c>
       <c r="C74">
-        <v>-0.1401952398337697</v>
+        <v>0.139549725205922</v>
       </c>
       <c r="D74">
-        <v>-0.05521679169450061</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4">
+        <v>0.03971954314163888</v>
+      </c>
+      <c r="E74">
+        <v>-0.0737189206907878</v>
+      </c>
+      <c r="F74">
+        <v>-0.003819193226544035</v>
+      </c>
+      <c r="G74">
+        <v>0.012966305852257</v>
+      </c>
+      <c r="H74">
+        <v>-0.02834025084075751</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8">
       <c r="A75" s="1" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="B75">
-        <v>-0.1669523221167203</v>
+        <v>-0.09510225871418684</v>
       </c>
       <c r="C75">
-        <v>-0.250430427788472</v>
+        <v>0.2504972649725515</v>
       </c>
       <c r="D75">
-        <v>-0.02830041321699982</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4">
+        <v>0.04566982818440577</v>
+      </c>
+      <c r="E75">
+        <v>-0.1711075096143493</v>
+      </c>
+      <c r="F75">
+        <v>-0.1362458223214733</v>
+      </c>
+      <c r="G75">
+        <v>0.08347067417428966</v>
+      </c>
+      <c r="H75">
+        <v>-0.1995139996804909</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8">
       <c r="A76" s="1" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="B76">
-        <v>-0.09721401074424964</v>
+        <v>-0.05745127412164471</v>
       </c>
       <c r="C76">
-        <v>-0.1764716208964803</v>
+        <v>0.1798271036974241</v>
       </c>
       <c r="D76">
-        <v>0.008198669565307414</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4">
+        <v>0.03588573515587187</v>
+      </c>
+      <c r="E76">
+        <v>-0.07258713929994041</v>
+      </c>
+      <c r="F76">
+        <v>-0.06870401882465964</v>
+      </c>
+      <c r="G76">
+        <v>0.06667057880669428</v>
+      </c>
+      <c r="H76">
+        <v>-0.05398038849941641</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8">
       <c r="A77" s="1" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="B77">
-        <v>0.0004343424399547097</v>
+        <v>-0.004205841317725247</v>
       </c>
       <c r="C77">
-        <v>-0.1185540440794801</v>
+        <v>0.1545430019001146</v>
       </c>
       <c r="D77">
-        <v>0.1994820851936062</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4">
+        <v>-0.9046477140555117</v>
+      </c>
+      <c r="E77">
+        <v>-0.2662685748592114</v>
+      </c>
+      <c r="F77">
+        <v>-0.09743521016091801</v>
+      </c>
+      <c r="G77">
+        <v>-0.1443018087791192</v>
+      </c>
+      <c r="H77">
+        <v>0.09031486715822575</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8">
       <c r="A78" s="1" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="B78">
-        <v>-0.02917276027338177</v>
+        <v>-0.0263396409268182</v>
       </c>
       <c r="C78">
-        <v>-0.1005880031733362</v>
+        <v>0.1116322075805956</v>
       </c>
       <c r="D78">
-        <v>0.1242000131767621</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4">
+        <v>0.009909028228114467</v>
+      </c>
+      <c r="E78">
+        <v>0.09592660498147475</v>
+      </c>
+      <c r="F78">
+        <v>0.05769885048204626</v>
+      </c>
+      <c r="G78">
+        <v>0.07784768524686919</v>
+      </c>
+      <c r="H78">
+        <v>-0.02721286300925362</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8">
       <c r="A79" s="1" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="B79">
-        <v>-0.07903028490218135</v>
+        <v>-0.05286692346160961</v>
       </c>
       <c r="C79">
-        <v>-0.2906876868208342</v>
+        <v>0.245756456060632</v>
       </c>
       <c r="D79">
-        <v>-0.7095194676922848</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4">
+        <v>0.2043961828945155</v>
+      </c>
+      <c r="E79">
+        <v>-0.3853093025710879</v>
+      </c>
+      <c r="F79">
+        <v>0.5641898135227296</v>
+      </c>
+      <c r="G79">
+        <v>-0.4840895746254911</v>
+      </c>
+      <c r="H79">
+        <v>0.3491763373729553</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8">
       <c r="A80" s="1" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="B80">
-        <v>0.001556028298545622</v>
+        <v>-0.008015745733945824</v>
       </c>
       <c r="C80">
-        <v>-0.05085866108092917</v>
+        <v>0.05028552294892801</v>
       </c>
       <c r="D80">
-        <v>0.02644401786689049</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4">
+        <v>0.02873749804742639</v>
+      </c>
+      <c r="E80">
+        <v>0.0524232064724875</v>
+      </c>
+      <c r="F80">
+        <v>-0.0124137969235395</v>
+      </c>
+      <c r="G80">
+        <v>0.05011240254481645</v>
+      </c>
+      <c r="H80">
+        <v>0.0492896096910293</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8">
       <c r="A81" s="1" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="B81">
-        <v>-0.06795133432353004</v>
+        <v>-0.02890106037530649</v>
       </c>
       <c r="C81">
-        <v>-0.1619391615574607</v>
+        <v>0.1571228261159295</v>
       </c>
       <c r="D81">
-        <v>-0.06809076917275057</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4">
+        <v>0.0452246371207229</v>
+      </c>
+      <c r="E81">
+        <v>-0.1077724491908808</v>
+      </c>
+      <c r="F81">
+        <v>0.007980416351993718</v>
+      </c>
+      <c r="G81">
+        <v>0.07357191510052523</v>
+      </c>
+      <c r="H81">
+        <v>-0.05799221819366288</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8">
       <c r="A82" s="1" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="B82">
-        <v>-0.1298652778143391</v>
+        <v>-0.06994724586251244</v>
       </c>
       <c r="C82">
-        <v>-0.2711689159050653</v>
+        <v>0.2356016545213922</v>
       </c>
       <c r="D82">
-        <v>-0.02693570281811366</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4">
+        <v>0.05994863050783211</v>
+      </c>
+      <c r="E82">
+        <v>-0.1627386944525855</v>
+      </c>
+      <c r="F82">
+        <v>-0.08939865811297668</v>
+      </c>
+      <c r="G82">
+        <v>0.151270546584962</v>
+      </c>
+      <c r="H82">
+        <v>-0.1016475308603749</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8">
       <c r="A83" s="1" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="B83">
-        <v>0.01611554568518128</v>
+        <v>0.00627985869226625</v>
       </c>
       <c r="C83">
-        <v>-0.04815835588453429</v>
+        <v>0.01694748182333316</v>
       </c>
       <c r="D83">
-        <v>-0.005220117239819415</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4">
+        <v>-0.07335554156195061</v>
+      </c>
+      <c r="E83">
+        <v>-0.09765120744115267</v>
+      </c>
+      <c r="F83">
+        <v>0.2208236356148416</v>
+      </c>
+      <c r="G83">
+        <v>0.7267800749344926</v>
+      </c>
+      <c r="H83">
+        <v>0.5360035723615254</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8">
       <c r="A84" s="1" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="B84">
-        <v>0.001122170010195808</v>
+        <v>0.00293673799196422</v>
       </c>
       <c r="C84">
-        <v>-0.004616585487828348</v>
+        <v>0.02382908185659979</v>
       </c>
       <c r="D84">
-        <v>0.0103777320093009</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4">
+        <v>-0.01522863707574822</v>
+      </c>
+      <c r="E84">
+        <v>0.04441985463992151</v>
+      </c>
+      <c r="F84">
+        <v>0.05888556965315099</v>
+      </c>
+      <c r="G84">
+        <v>-0.008007997534942239</v>
+      </c>
+      <c r="H84">
+        <v>-0.06133563294508529</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8">
       <c r="A85" s="1" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="B85">
-        <v>-0.09294322491351766</v>
+        <v>-0.05282818835417104</v>
       </c>
       <c r="C85">
-        <v>-0.1782487447601422</v>
+        <v>0.1731006677482499</v>
       </c>
       <c r="D85">
-        <v>-0.0899723525659042</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4">
+        <v>0.1025887377573275</v>
+      </c>
+      <c r="E85">
+        <v>-0.1119160837294816</v>
+      </c>
+      <c r="F85">
+        <v>0.0004662892166899028</v>
+      </c>
+      <c r="G85">
+        <v>0.02541726171080891</v>
+      </c>
+      <c r="H85">
+        <v>-0.04857346134562436</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8">
       <c r="A86" s="1" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="B86">
-        <v>-0.02659256232591554</v>
+        <v>-0.0162225604768641</v>
       </c>
       <c r="C86">
-        <v>-0.02501631052424521</v>
+        <v>0.05547671561552007</v>
       </c>
       <c r="D86">
-        <v>0.07106177906774765</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4">
+        <v>-0.05403726691716062</v>
+      </c>
+      <c r="E86">
+        <v>0.04993787541199667</v>
+      </c>
+      <c r="F86">
+        <v>0.07807644994580339</v>
+      </c>
+      <c r="G86">
+        <v>-0.003138900402229766</v>
+      </c>
+      <c r="H86">
+        <v>-0.06442577845658494</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8">
       <c r="A87" s="1" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="B87">
-        <v>-0.01988261649425393</v>
+        <v>-0.01259283006084137</v>
       </c>
       <c r="C87">
-        <v>-0.05695824655503608</v>
+        <v>0.08050765543784302</v>
       </c>
       <c r="D87">
-        <v>0.1036355913449285</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4">
+        <v>-0.04586975300476877</v>
+      </c>
+      <c r="E87">
+        <v>0.09991758822424279</v>
+      </c>
+      <c r="F87">
+        <v>0.09002608476562937</v>
+      </c>
+      <c r="G87">
+        <v>0.02483991706902277</v>
+      </c>
+      <c r="H87">
+        <v>-0.04464985183882544</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8">
       <c r="A88" s="1" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="B88">
-        <v>-0.03431603819074553</v>
+        <v>-0.03352734512422327</v>
       </c>
       <c r="C88">
-        <v>-0.06849281434460715</v>
+        <v>0.07751181951259664</v>
       </c>
       <c r="D88">
-        <v>-0.001575209412106313</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4">
+        <v>0.01879593314452212</v>
+      </c>
+      <c r="E88">
+        <v>0.01908090731316365</v>
+      </c>
+      <c r="F88">
+        <v>0.0003689663713592564</v>
+      </c>
+      <c r="G88">
+        <v>-0.005515771881151917</v>
+      </c>
+      <c r="H88">
+        <v>-0.003537974294787103</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8">
       <c r="A89" s="1" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="B89">
-        <v>-0.4005663354313256</v>
+        <v>-0.402390222031042</v>
       </c>
       <c r="C89">
-        <v>0.214358932508379</v>
+        <v>-0.1519814116135181</v>
       </c>
       <c r="D89">
-        <v>-0.003485139873363816</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4">
+        <v>-0.04098433515411606</v>
+      </c>
+      <c r="E89">
+        <v>0.012719536523625</v>
+      </c>
+      <c r="F89">
+        <v>0.108845950348005</v>
+      </c>
+      <c r="G89">
+        <v>0.08238861977276067</v>
+      </c>
+      <c r="H89">
+        <v>0.06134011061075962</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8">
       <c r="A90" s="1" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="B90">
-        <v>-0.3129820275870723</v>
+        <v>-0.3229471578753753</v>
       </c>
       <c r="C90">
-        <v>0.1506222502247338</v>
+        <v>-0.09459060589041107</v>
       </c>
       <c r="D90">
-        <v>0.06353056366532368</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4">
+        <v>-0.03150822305673659</v>
+      </c>
+      <c r="E90">
+        <v>0.03655781131997447</v>
+      </c>
+      <c r="F90">
+        <v>0.002779253686104855</v>
+      </c>
+      <c r="G90">
+        <v>0.02647844804749136</v>
+      </c>
+      <c r="H90">
+        <v>-0.03171903294265802</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8">
       <c r="A91" s="1" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="B91">
-        <v>-0.09976457037479454</v>
+        <v>-0.06288077201378797</v>
       </c>
       <c r="C91">
-        <v>-0.2208180286429726</v>
+        <v>0.1929300642671748</v>
       </c>
       <c r="D91">
-        <v>-0.10092447290854</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4">
+        <v>0.04457504217714377</v>
+      </c>
+      <c r="E91">
+        <v>-0.1607188044836444</v>
+      </c>
+      <c r="F91">
+        <v>0.0009662657049018112</v>
+      </c>
+      <c r="G91">
+        <v>0.04426419059137646</v>
+      </c>
+      <c r="H91">
+        <v>-0.02618791204954947</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8">
       <c r="A92" s="1" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="B92">
-        <v>-0.3133181111733191</v>
+        <v>-0.3426577731891617</v>
       </c>
       <c r="C92">
-        <v>0.1856377636965409</v>
+        <v>-0.139407062011013</v>
       </c>
       <c r="D92">
-        <v>-0.05286021102706677</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4">
+        <v>-0.05656676379480266</v>
+      </c>
+      <c r="E92">
+        <v>-0.04349643976857592</v>
+      </c>
+      <c r="F92">
+        <v>0.07435792627286057</v>
+      </c>
+      <c r="G92">
+        <v>-0.05240792996080274</v>
+      </c>
+      <c r="H92">
+        <v>-0.09372652632542318</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8">
       <c r="A93" s="1" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="B93">
-        <v>-0.3302840795567713</v>
+        <v>-0.3297597725549306</v>
       </c>
       <c r="C93">
-        <v>0.1629293809859158</v>
+        <v>-0.1153578509057946</v>
       </c>
       <c r="D93">
-        <v>-0.03269149378956386</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4">
+        <v>0.02415311944746689</v>
+      </c>
+      <c r="E93">
+        <v>-0.01734718543631076</v>
+      </c>
+      <c r="F93">
+        <v>0.0002558662594652634</v>
+      </c>
+      <c r="G93">
+        <v>-0.03981689844760633</v>
+      </c>
+      <c r="H93">
+        <v>-0.02720558591904642</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8">
       <c r="A94" s="1" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="B94">
-        <v>-0.1799897740930036</v>
+        <v>-0.116665526741687</v>
       </c>
       <c r="C94">
-        <v>-0.2726964556245272</v>
+        <v>0.2620383216765742</v>
       </c>
       <c r="D94">
-        <v>-0.09095613441283722</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4">
+        <v>0.131448516602105</v>
+      </c>
+      <c r="E94">
+        <v>-0.2693521381481125</v>
+      </c>
+      <c r="F94">
+        <v>-0.1808799847083996</v>
+      </c>
+      <c r="G94">
+        <v>0.1784852765361007</v>
+      </c>
+      <c r="H94">
+        <v>-0.2326192619197013</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8">
       <c r="A95" s="1" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="B95">
-        <v>0.003800035002107342</v>
+        <v>-0.01400335263801076</v>
       </c>
       <c r="C95">
-        <v>-0.06636786561064911</v>
+        <v>0.09560665609736323</v>
       </c>
       <c r="D95">
-        <v>0.08731185961964591</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4">
+        <v>-0.1290687996690458</v>
+      </c>
+      <c r="E95">
+        <v>0.03432562448049482</v>
+      </c>
+      <c r="F95">
+        <v>-0.05565854592628714</v>
+      </c>
+      <c r="G95">
+        <v>-0.01800921048494099</v>
+      </c>
+      <c r="H95">
+        <v>0.04292853221407091</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8">
       <c r="A96" s="1" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2035,38 +3187,74 @@
       <c r="D96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:4">
+      <c r="E96">
+        <v>0</v>
+      </c>
+      <c r="F96">
+        <v>0</v>
+      </c>
+      <c r="G96">
+        <v>0</v>
+      </c>
+      <c r="H96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8">
       <c r="A97" s="1" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="B97">
-        <v>0</v>
+        <v>-0.00205408541052969</v>
       </c>
       <c r="C97">
-        <v>0</v>
+        <v>0.001405039714603035</v>
       </c>
       <c r="D97">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="98" spans="1:4">
+        <v>0.003170165520007389</v>
+      </c>
+      <c r="E97">
+        <v>0.003497092281150969</v>
+      </c>
+      <c r="F97">
+        <v>-0.0005346131628687468</v>
+      </c>
+      <c r="G97">
+        <v>-0.002208980938832109</v>
+      </c>
+      <c r="H97">
+        <v>-0.005425692671636588</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8">
       <c r="A98" s="1" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="B98">
-        <v>-0.1205981310998019</v>
+        <v>-0.1312460275289352</v>
       </c>
       <c r="C98">
-        <v>-0.1096387787245106</v>
+        <v>0.1550287532789805</v>
       </c>
       <c r="D98">
-        <v>0.1412202396915472</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4">
+        <v>0.0492230016209568</v>
+      </c>
+      <c r="E98">
+        <v>0.183447071515159</v>
+      </c>
+      <c r="F98">
+        <v>-0.2780086341976752</v>
+      </c>
+      <c r="G98">
+        <v>-0.1384094886825871</v>
+      </c>
+      <c r="H98">
+        <v>0.2552394580917519</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8">
       <c r="A99" s="1" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="B99">
         <v>0</v>
@@ -2077,10 +3265,22 @@
       <c r="D99">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="1:4">
+      <c r="E99">
+        <v>0</v>
+      </c>
+      <c r="F99">
+        <v>0</v>
+      </c>
+      <c r="G99">
+        <v>0</v>
+      </c>
+      <c r="H99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8">
       <c r="A100" s="1" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -2091,38 +3291,74 @@
       <c r="D100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:4">
+      <c r="E100">
+        <v>0</v>
+      </c>
+      <c r="F100">
+        <v>0</v>
+      </c>
+      <c r="G100">
+        <v>0</v>
+      </c>
+      <c r="H100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8">
       <c r="A101" s="1" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="B101">
-        <v>-0.0004441307255664892</v>
+        <v>-0.002907515350274046</v>
       </c>
       <c r="C101">
-        <v>-0.02668536319024476</v>
+        <v>0.05010156525130759</v>
       </c>
       <c r="D101">
-        <v>0.05784965359603505</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4">
+        <v>0.002414597574361128</v>
+      </c>
+      <c r="E101">
+        <v>0.1165595321586817</v>
+      </c>
+      <c r="F101">
+        <v>0.06221969870123809</v>
+      </c>
+      <c r="G101">
+        <v>0.02141406809933314</v>
+      </c>
+      <c r="H101">
+        <v>0.05765092623662919</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8">
       <c r="A102" s="1" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="B102">
-        <v>-0.05172325364632976</v>
+        <v>-0.01684684797997834</v>
       </c>
       <c r="C102">
-        <v>-0.1536986752603936</v>
+        <v>0.11056088273025</v>
       </c>
       <c r="D102">
-        <v>0.01076945333762573</v>
-      </c>
-    </row>
-    <row r="103" spans="1:4">
+        <v>0.02222043819405791</v>
+      </c>
+      <c r="E102">
+        <v>-0.08286747698339532</v>
+      </c>
+      <c r="F102">
+        <v>-0.07063725392215861</v>
+      </c>
+      <c r="G102">
+        <v>0.06529735938367605</v>
+      </c>
+      <c r="H102">
+        <v>-0.03589844499079552</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8">
       <c r="A103" s="1" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -2133,10 +3369,22 @@
       <c r="D103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:4">
+      <c r="E103">
+        <v>0</v>
+      </c>
+      <c r="F103">
+        <v>0</v>
+      </c>
+      <c r="G103">
+        <v>0</v>
+      </c>
+      <c r="H103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8">
       <c r="A104" s="1" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="B104">
         <v>0</v>
@@ -2145,6 +3393,18 @@
         <v>0</v>
       </c>
       <c r="D104">
+        <v>0</v>
+      </c>
+      <c r="E104">
+        <v>0</v>
+      </c>
+      <c r="F104">
+        <v>0</v>
+      </c>
+      <c r="G104">
+        <v>0</v>
+      </c>
+      <c r="H104">
         <v>0</v>
       </c>
     </row>
